--- a/status/excel/fromBox/NMAN_excel.xlsx
+++ b/status/excel/fromBox/NMAN_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelskinner/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selenawallace/Downloads/Status Sheets-selected (6)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{FD462B15-4EC1-3E44-B504-0DE1A41947A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42A3A085-161F-41DE-B3C7-70C45A8C1AF8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEB7D95-2028-1E4C-9B25-C9461E2C9C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{4927FFF1-009F-2B44-A264-49008F08686F}"/>
   </bookViews>
@@ -81,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,11 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,12 +438,12 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -493,7 +492,7 @@
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -510,7 +509,7 @@
         <v>39994</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -527,7 +526,7 @@
         <v>40178</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -544,7 +543,7 @@
         <v>40359</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -561,7 +560,7 @@
         <v>40543</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -578,7 +577,7 @@
         <v>40724</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -595,7 +594,7 @@
         <v>40908</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -612,7 +611,7 @@
         <v>41090</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -629,7 +628,7 @@
         <v>41274</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -646,7 +645,7 @@
         <v>41455</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -663,7 +662,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -680,7 +679,7 @@
         <v>41820</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -697,7 +696,7 @@
         <v>42004</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -714,7 +713,7 @@
         <v>42185</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -731,7 +730,7 @@
         <v>42369</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -748,7 +747,7 @@
         <v>42551</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -765,7 +764,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -782,7 +781,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -799,7 +798,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -816,7 +815,7 @@
         <v>43281</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -833,7 +832,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -850,7 +849,7 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -867,7 +866,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -884,7 +883,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -901,7 +900,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -918,7 +917,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -935,7 +934,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -952,7 +951,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -969,7 +968,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -986,7 +985,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1013,10 +1012,10 @@
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>45292</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
         <v>45366</v>
       </c>
     </row>
